--- a/xlsx/德意志裔人_intext.xlsx
+++ b/xlsx/德意志裔人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>德意志裔人</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>一次大戰</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_德意志裔人</t>
+    <t>一次大战</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_德意志裔人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>上西里西亞</t>
+    <t>上西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%8F%B0%E5%BE%B7</t>
   </si>
   <si>
-    <t>蘇台德</t>
+    <t>苏台德</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Karpatendeutsche_Karpaten</t>
@@ -149,13 +146,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E6%89%8E%E8%AB%BE%E8%87%AA%E6%B2%BB%E7%9C%81</t>
   </si>
   <si>
-    <t>波爾扎諾自治省</t>
+    <t>波尔扎诺自治省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Deutschschweizer</t>
@@ -1004,7 +1001,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1030,10 +1027,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1059,10 +1056,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1088,10 +1085,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1117,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1146,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1175,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1204,10 +1201,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1233,10 +1230,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1262,10 +1259,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1291,10 +1288,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1320,10 +1317,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1349,10 +1346,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1378,10 +1375,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1407,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1436,10 +1433,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1465,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1494,10 +1491,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1523,10 +1520,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1552,10 +1549,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1581,10 +1578,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
